--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Pth1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H2">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I2">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J2">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.240767</v>
+        <v>0.8566003333333333</v>
       </c>
       <c r="N2">
-        <v>3.722301</v>
+        <v>2.569801</v>
       </c>
       <c r="O2">
-        <v>0.1653663592679705</v>
+        <v>0.1153349512295097</v>
       </c>
       <c r="P2">
-        <v>0.1653663592679705</v>
+        <v>0.1153349512295097</v>
       </c>
       <c r="Q2">
-        <v>8.440198403867999</v>
+        <v>0.2104030279418889</v>
       </c>
       <c r="R2">
-        <v>75.961785634812</v>
+        <v>1.893627251477</v>
       </c>
       <c r="S2">
-        <v>0.1534751692304772</v>
+        <v>0.004001017293546629</v>
       </c>
       <c r="T2">
-        <v>0.1534751692304771</v>
+        <v>0.004001017293546629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H3">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I3">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J3">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.091127</v>
       </c>
       <c r="O3">
-        <v>0.6260101936873455</v>
+        <v>0.6324222946888989</v>
       </c>
       <c r="P3">
-        <v>0.6260101936873453</v>
+        <v>0.632422294688899</v>
       </c>
       <c r="Q3">
-        <v>31.951179556436</v>
+        <v>1.153714154486555</v>
       </c>
       <c r="R3">
-        <v>287.560616007924</v>
+        <v>10.383427390379</v>
       </c>
       <c r="S3">
-        <v>0.5809949547264303</v>
+        <v>0.02193899170113243</v>
       </c>
       <c r="T3">
-        <v>0.58099495472643</v>
+        <v>0.02193899170113243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H4">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I4">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J4">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.492587</v>
+        <v>1.559594666666667</v>
       </c>
       <c r="N4">
-        <v>4.477760999999999</v>
+        <v>4.678784</v>
       </c>
       <c r="O4">
-        <v>0.1989283065077507</v>
+        <v>0.2099879813469643</v>
       </c>
       <c r="P4">
-        <v>0.1989283065077506</v>
+        <v>0.2099879813469644</v>
       </c>
       <c r="Q4">
-        <v>10.153179779148</v>
+        <v>0.3830764797297778</v>
       </c>
       <c r="R4">
-        <v>91.37861801233198</v>
+        <v>3.447688317568</v>
       </c>
       <c r="S4">
-        <v>0.1846237387166246</v>
+        <v>0.007284570165849134</v>
       </c>
       <c r="T4">
-        <v>0.1846237387166245</v>
+        <v>0.007284570165849135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H5">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I5">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J5">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.072744</v>
+        <v>0.313829</v>
       </c>
       <c r="N5">
-        <v>0.218232</v>
+        <v>0.941487</v>
       </c>
       <c r="O5">
-        <v>0.009695140536933404</v>
+        <v>0.04225477273462707</v>
       </c>
       <c r="P5">
-        <v>0.009695140536933402</v>
+        <v>0.04225477273462708</v>
       </c>
       <c r="Q5">
-        <v>0.494834076576</v>
+        <v>0.07708445734433332</v>
       </c>
       <c r="R5">
-        <v>4.453506689184</v>
+        <v>0.693760116099</v>
       </c>
       <c r="S5">
-        <v>0.008997980854182802</v>
+        <v>0.00146583559141324</v>
       </c>
       <c r="T5">
-        <v>0.008997980854182798</v>
+        <v>0.00146583559141324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5270473333333333</v>
+        <v>6.802404</v>
       </c>
       <c r="H6">
-        <v>1.581142</v>
+        <v>20.407212</v>
       </c>
       <c r="I6">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="J6">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.240767</v>
+        <v>0.8566003333333333</v>
       </c>
       <c r="N6">
-        <v>3.722301</v>
+        <v>2.569801</v>
       </c>
       <c r="O6">
-        <v>0.1653663592679705</v>
+        <v>0.1153349512295097</v>
       </c>
       <c r="P6">
-        <v>0.1653663592679705</v>
+        <v>0.1153349512295097</v>
       </c>
       <c r="Q6">
-        <v>0.6539429386379999</v>
+        <v>5.826941533868</v>
       </c>
       <c r="R6">
-        <v>5.885486447742</v>
+        <v>52.442473804812</v>
       </c>
       <c r="S6">
-        <v>0.01189119003749337</v>
+        <v>0.1108049350503168</v>
       </c>
       <c r="T6">
-        <v>0.01189119003749336</v>
+        <v>0.1108049350503168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5270473333333333</v>
+        <v>6.802404</v>
       </c>
       <c r="H7">
-        <v>1.581142</v>
+        <v>20.407212</v>
       </c>
       <c r="I7">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="J7">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>14.091127</v>
       </c>
       <c r="O7">
-        <v>0.6260101936873455</v>
+        <v>0.6324222946888989</v>
       </c>
       <c r="P7">
-        <v>0.6260101936873453</v>
+        <v>0.632422294688899</v>
       </c>
       <c r="Q7">
-        <v>2.475563636337111</v>
+        <v>31.951179556436</v>
       </c>
       <c r="R7">
-        <v>22.280072727034</v>
+        <v>287.560616007924</v>
       </c>
       <c r="S7">
-        <v>0.04501523896091525</v>
+        <v>0.607582615159993</v>
       </c>
       <c r="T7">
-        <v>0.04501523896091524</v>
+        <v>0.6075826151599931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5270473333333333</v>
+        <v>6.802404</v>
       </c>
       <c r="H8">
-        <v>1.581142</v>
+        <v>20.407212</v>
       </c>
       <c r="I8">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="J8">
-        <v>0.07190815647228528</v>
+        <v>0.9607229540490425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.492587</v>
+        <v>1.559594666666667</v>
       </c>
       <c r="N8">
-        <v>4.477760999999999</v>
+        <v>4.678784</v>
       </c>
       <c r="O8">
-        <v>0.1989283065077507</v>
+        <v>0.2099879813469643</v>
       </c>
       <c r="P8">
-        <v>0.1989283065077506</v>
+        <v>0.2099879813469644</v>
       </c>
       <c r="Q8">
-        <v>0.7866639981179998</v>
+        <v>10.608992998912</v>
       </c>
       <c r="R8">
-        <v>7.079975983061999</v>
+        <v>95.48093699020801</v>
       </c>
       <c r="S8">
-        <v>0.01430456779112606</v>
+        <v>0.2017402737544508</v>
       </c>
       <c r="T8">
-        <v>0.01430456779112606</v>
+        <v>0.2017402737544508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.802404</v>
+      </c>
+      <c r="H9">
+        <v>20.407212</v>
+      </c>
+      <c r="I9">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="J9">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.313829</v>
+      </c>
+      <c r="N9">
+        <v>0.941487</v>
+      </c>
+      <c r="O9">
+        <v>0.04225477273462707</v>
+      </c>
+      <c r="P9">
+        <v>0.04225477273462708</v>
+      </c>
+      <c r="Q9">
+        <v>2.134791644916</v>
+      </c>
+      <c r="R9">
+        <v>19.213124804244</v>
+      </c>
+      <c r="S9">
+        <v>0.04059513008428186</v>
+      </c>
+      <c r="T9">
+        <v>0.04059513008428187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.5270473333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.581142</v>
-      </c>
-      <c r="I9">
-        <v>0.07190815647228528</v>
-      </c>
-      <c r="J9">
-        <v>0.07190815647228528</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="G10">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.097427</v>
+      </c>
+      <c r="I10">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J10">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8566003333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.569801</v>
+      </c>
+      <c r="O10">
+        <v>0.1153349512295097</v>
+      </c>
+      <c r="P10">
+        <v>0.1153349512295097</v>
+      </c>
+      <c r="Q10">
+        <v>0.02781866689188889</v>
+      </c>
+      <c r="R10">
+        <v>0.250368002027</v>
+      </c>
+      <c r="S10">
+        <v>0.0005289988856462712</v>
+      </c>
+      <c r="T10">
+        <v>0.0005289988856462712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.072744</v>
-      </c>
-      <c r="N9">
-        <v>0.218232</v>
-      </c>
-      <c r="O9">
-        <v>0.009695140536933404</v>
-      </c>
-      <c r="P9">
-        <v>0.009695140536933402</v>
-      </c>
-      <c r="Q9">
-        <v>0.038339531216</v>
-      </c>
-      <c r="R9">
-        <v>0.345055780944</v>
-      </c>
-      <c r="S9">
-        <v>0.0006971596827506032</v>
-      </c>
-      <c r="T9">
-        <v>0.0006971596827506031</v>
+      <c r="G11">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.097427</v>
+      </c>
+      <c r="I11">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J11">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.697042333333333</v>
+      </c>
+      <c r="N11">
+        <v>14.091127</v>
+      </c>
+      <c r="O11">
+        <v>0.6324222946888989</v>
+      </c>
+      <c r="P11">
+        <v>0.632422294688899</v>
+      </c>
+      <c r="Q11">
+        <v>0.1525395811365556</v>
+      </c>
+      <c r="R11">
+        <v>1.372856230229</v>
+      </c>
+      <c r="S11">
+        <v>0.002900687827773468</v>
+      </c>
+      <c r="T11">
+        <v>0.002900687827773468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.097427</v>
+      </c>
+      <c r="I12">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J12">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.559594666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.678784</v>
+      </c>
+      <c r="O12">
+        <v>0.2099879813469643</v>
+      </c>
+      <c r="P12">
+        <v>0.2099879813469644</v>
+      </c>
+      <c r="Q12">
+        <v>0.05064887652977778</v>
+      </c>
+      <c r="R12">
+        <v>0.455839888768</v>
+      </c>
+      <c r="S12">
+        <v>0.0009631374266644007</v>
+      </c>
+      <c r="T12">
+        <v>0.0009631374266644007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.097427</v>
+      </c>
+      <c r="I13">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J13">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.313829</v>
+      </c>
+      <c r="N13">
+        <v>0.941487</v>
+      </c>
+      <c r="O13">
+        <v>0.04225477273462707</v>
+      </c>
+      <c r="P13">
+        <v>0.04225477273462708</v>
+      </c>
+      <c r="Q13">
+        <v>0.01019180599433333</v>
+      </c>
+      <c r="R13">
+        <v>0.091726253949</v>
+      </c>
+      <c r="S13">
+        <v>0.000193807058931976</v>
+      </c>
+      <c r="T13">
+        <v>0.000193807058931976</v>
       </c>
     </row>
   </sheetData>
